--- a/UnityProject_2024_2_B_K/Assets/Resources/Excel/MonsterData.xlsx
+++ b/UnityProject_2024_2_B_K/Assets/Resources/Excel/MonsterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkkj\UnityClient_B_2024_01\UnityProject_2024_2_B_K\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFolder\UnityClient_B_2024_01\UnityProject_2024_2_B_K\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42426F8F-9414-46D5-9912-1DA776FE1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679678AF-5C7F-4B5E-97AF-855CA3EBFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>몬스터 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,18 +80,6 @@
   </si>
   <si>
     <t>몬스터 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject_2024_2_B_K/Assets/Resources/Excel/MonsterData.xlsx
+++ b/UnityProject_2024_2_B_K/Assets/Resources/Excel/MonsterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFolder\UnityClient_B_2024_01\UnityProject_2024_2_B_K\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679678AF-5C7F-4B5E-97AF-855CA3EBFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E5BDCF-0389-4F4C-8924-762DC12D0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,10 @@
   </si>
   <si>
     <t>몬스터 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kwangjoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,10 +424,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
